--- a/Test_Sets/Project_Sets/src/main/resources/staff.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/staff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\school_related\stage_3_semester_2\comp30880\TeamPartial\cthulhu\Test_Sets\Project_Sets\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A53E25-0408-40AB-A774-5970DE6AF31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7314,7 +7320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -7462,6 +7468,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7786,22 +7800,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1028</v>
       </c>
@@ -7815,7 +7829,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36">
+    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7826,7 +7840,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7837,7 +7851,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36">
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7848,7 +7862,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7859,7 +7873,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7870,7 +7884,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7881,7 +7895,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -7892,7 +7906,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36">
+    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7906,7 +7920,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7917,7 +7931,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36">
+    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -7928,7 +7942,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
+    <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -7939,7 +7953,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
+    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -7950,7 +7964,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -7961,7 +7975,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -7972,7 +7986,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -7983,7 +7997,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -7994,7 +8008,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -8005,7 +8019,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -8016,7 +8030,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -8030,7 +8044,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -8041,7 +8055,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36">
+    <row r="22" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -8052,7 +8066,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36">
+    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -8063,7 +8077,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -8074,7 +8088,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -8088,7 +8102,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36">
+    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -8102,7 +8116,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36">
+    <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -8113,7 +8127,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36">
+    <row r="28" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -8124,7 +8138,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -8135,7 +8149,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36">
+    <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -8149,7 +8163,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="36">
+    <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -8160,7 +8174,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="72">
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -8171,7 +8185,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36">
+    <row r="33" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -8182,7 +8196,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -8193,7 +8207,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
+    <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -8207,7 +8221,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -8218,7 +8232,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -8229,7 +8243,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="36">
+    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -8243,7 +8257,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="36">
+    <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -8254,7 +8268,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -8265,7 +8279,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="36">
+    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -8276,7 +8290,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -8287,7 +8301,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="36">
+    <row r="43" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -8301,7 +8315,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="72">
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -8315,7 +8329,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="36">
+    <row r="45" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -8326,7 +8340,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="36">
+    <row r="46" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -8337,7 +8351,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="54">
+    <row r="47" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -8348,7 +8362,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36">
+    <row r="48" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -8359,7 +8373,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36">
+    <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -8370,7 +8384,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="36">
+    <row r="50" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -8384,7 +8398,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="36">
+    <row r="51" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -8398,7 +8412,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="36">
+    <row r="52" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -8409,7 +8423,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="36">
+    <row r="53" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -8420,7 +8434,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="54">
+    <row r="54" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -8431,7 +8445,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="36">
+    <row r="55" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -8442,7 +8456,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="36">
+    <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -8453,7 +8467,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36">
+    <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -8464,7 +8478,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36">
+    <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -8475,7 +8489,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -8486,7 +8500,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -8497,7 +8511,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="36">
+    <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -8508,7 +8522,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="54">
+    <row r="62" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -8522,7 +8536,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -8533,7 +8547,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="36">
+    <row r="64" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -8544,7 +8558,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -8555,7 +8569,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="36">
+    <row r="66" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -8566,7 +8580,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="36">
+    <row r="67" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -8580,7 +8594,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36">
+    <row r="68" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -8591,7 +8605,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="36">
+    <row r="69" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -8602,7 +8616,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -8613,7 +8627,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="72">
+    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -8627,7 +8641,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="54">
+    <row r="72" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -8641,7 +8655,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="36">
+    <row r="73" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -8655,7 +8669,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="108">
+    <row r="74" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -8669,7 +8683,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36">
+    <row r="75" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -8683,7 +8697,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -8697,7 +8711,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="36">
+    <row r="77" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -8708,7 +8722,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="72">
+    <row r="78" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -8719,7 +8733,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -8733,7 +8747,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="36">
+    <row r="80" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -8744,7 +8758,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -8755,7 +8769,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="36">
+    <row r="82" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -8769,7 +8783,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="36">
+    <row r="83" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -8780,7 +8794,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="36">
+    <row r="84" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -8791,7 +8805,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -8802,7 +8816,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="36">
+    <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -8813,7 +8827,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="54">
+    <row r="87" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -8827,7 +8841,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -8838,7 +8852,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -8849,7 +8863,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="36">
+    <row r="90" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -8860,7 +8874,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="36">
+    <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -8871,7 +8885,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -8882,7 +8896,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="54">
+    <row r="93" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -8893,7 +8907,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="36">
+    <row r="94" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -8904,7 +8918,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="72">
+    <row r="95" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -8918,7 +8932,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="36">
+    <row r="96" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -8932,7 +8946,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="36">
+    <row r="97" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -8943,7 +8957,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -8954,7 +8968,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="54">
+    <row r="99" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -8965,7 +8979,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="36">
+    <row r="100" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -8976,7 +8990,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="36">
+    <row r="101" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -8987,7 +9001,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -8998,7 +9012,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="36">
+    <row r="103" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -9009,7 +9023,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="36">
+    <row r="104" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -9020,7 +9034,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -9031,7 +9045,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="36">
+    <row r="106" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -9045,7 +9059,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -9056,7 +9070,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -9067,7 +9081,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="36">
+    <row r="109" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -9078,7 +9092,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="72">
+    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -9089,7 +9103,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="36">
+    <row r="111" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -9100,7 +9114,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="54">
+    <row r="112" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -9111,7 +9125,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="36">
+    <row r="113" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -9122,7 +9136,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="36">
+    <row r="114" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -9136,7 +9150,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -9147,7 +9161,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="36">
+    <row r="116" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -9158,7 +9172,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="36">
+    <row r="117" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -9169,7 +9183,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="36">
+    <row r="118" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -9183,7 +9197,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -9194,7 +9208,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="36">
+    <row r="120" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -9205,7 +9219,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="36">
+    <row r="121" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -9219,7 +9233,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -9230,7 +9244,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="54">
+    <row r="123" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -9241,7 +9255,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -9252,7 +9266,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -9263,7 +9277,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="54">
+    <row r="126" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -9277,7 +9291,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="72">
+    <row r="127" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -9291,7 +9305,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="36">
+    <row r="128" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -9302,7 +9316,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="36">
+    <row r="129" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -9313,7 +9327,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="36">
+    <row r="130" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -9324,7 +9338,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="36">
+    <row r="131" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -9335,7 +9349,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="36">
+    <row r="132" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -9346,7 +9360,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="36">
+    <row r="133" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -9357,7 +9371,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="54">
+    <row r="134" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -9368,7 +9382,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -9379,7 +9393,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="36">
+    <row r="136" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -9390,7 +9404,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="36">
+    <row r="137" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -9401,7 +9415,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="36">
+    <row r="138" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -9412,7 +9426,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="36">
+    <row r="139" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
@@ -9423,7 +9437,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="90">
+    <row r="140" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -9434,7 +9448,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -9445,7 +9459,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="72">
+    <row r="142" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -9459,7 +9473,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="36">
+    <row r="143" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -9470,7 +9484,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="36">
+    <row r="144" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -9481,7 +9495,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
@@ -9492,7 +9506,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="36">
+    <row r="146" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -9506,7 +9520,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -9517,7 +9531,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="36">
+    <row r="148" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -9531,7 +9545,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="72">
+    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="54">
+    <row r="150" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9556,7 +9570,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="72">
+    <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9570,7 +9584,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -9581,7 +9595,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="54">
+    <row r="153" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
@@ -9592,7 +9606,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="54">
+    <row r="154" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
@@ -9606,7 +9620,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="36">
+    <row r="155" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
@@ -9620,7 +9634,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="54">
+    <row r="156" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -9631,7 +9645,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="36">
+    <row r="157" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -9642,7 +9656,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="36">
+    <row r="158" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -9653,7 +9667,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -9664,7 +9678,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -9675,7 +9689,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="36">
+    <row r="161" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
@@ -9686,7 +9700,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36">
+    <row r="162" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
@@ -9700,7 +9714,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="36">
+    <row r="163" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
@@ -9711,7 +9725,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="72">
+    <row r="164" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
@@ -9722,7 +9736,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
@@ -9733,7 +9747,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
@@ -9744,7 +9758,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
@@ -9755,7 +9769,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="36">
+    <row r="168" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
@@ -9769,7 +9783,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="36">
+    <row r="169" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
@@ -9783,7 +9797,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
@@ -9794,7 +9808,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="36">
+    <row r="171" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
@@ -9805,7 +9819,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="54">
+    <row r="172" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -9816,7 +9830,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="54">
+    <row r="173" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -9827,7 +9841,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="36">
+    <row r="174" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
@@ -9838,7 +9852,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="54">
+    <row r="175" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
@@ -9849,7 +9863,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="36">
+    <row r="176" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>174</v>
       </c>
@@ -9860,7 +9874,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="36">
+    <row r="177" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
@@ -9871,7 +9885,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="36">
+    <row r="178" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -9885,7 +9899,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="36">
+    <row r="179" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -9896,7 +9910,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="36">
+    <row r="180" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -9910,7 +9924,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="36">
+    <row r="181" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -9921,7 +9935,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="36">
+    <row r="182" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -9932,7 +9946,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="36">
+    <row r="183" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -9943,7 +9957,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="54">
+    <row r="184" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -9957,7 +9971,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="36">
+    <row r="185" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -9968,7 +9982,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="36">
+    <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -9979,7 +9993,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="72">
+    <row r="187" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -9990,7 +10004,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="36">
+    <row r="188" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
@@ -10001,7 +10015,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
@@ -10012,7 +10026,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="90">
+    <row r="190" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -10023,7 +10037,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="54">
+    <row r="191" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
@@ -10037,7 +10051,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
@@ -10048,7 +10062,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="36">
+    <row r="193" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
@@ -10059,7 +10073,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -10070,7 +10084,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="36">
+    <row r="195" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
@@ -10081,7 +10095,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
@@ -10092,7 +10106,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="36">
+    <row r="197" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
@@ -10103,7 +10117,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="72">
+    <row r="198" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
@@ -10114,7 +10128,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="36">
+    <row r="199" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -10128,7 +10142,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="54">
+    <row r="200" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>198</v>
       </c>
@@ -10139,7 +10153,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="36">
+    <row r="201" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
@@ -10150,7 +10164,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="72">
+    <row r="202" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>200</v>
       </c>
@@ -10161,7 +10175,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="36">
+    <row r="203" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>201</v>
       </c>
@@ -10172,7 +10186,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="36">
+    <row r="204" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
@@ -10183,7 +10197,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="36">
+    <row r="205" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
@@ -10194,7 +10208,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -10205,7 +10219,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="36">
+    <row r="207" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
@@ -10217,7 +10231,7 @@
       </c>
       <c r="D207" s="10"/>
     </row>
-    <row r="208" spans="1:4" ht="36">
+    <row r="208" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -10228,7 +10242,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="36">
+    <row r="209" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -10239,7 +10253,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="36">
+    <row r="210" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -10250,7 +10264,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="36">
+    <row r="211" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -10261,7 +10275,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="54">
+    <row r="212" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -10272,7 +10286,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="54">
+    <row r="213" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -10283,7 +10297,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -10294,7 +10308,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="36">
+    <row r="215" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -10305,7 +10319,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="72">
+    <row r="216" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -10316,7 +10330,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="54">
+    <row r="217" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -10327,7 +10341,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="72">
+    <row r="218" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -10341,7 +10355,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="36">
+    <row r="219" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
@@ -10355,7 +10369,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="36">
+    <row r="220" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -10369,7 +10383,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="36">
+    <row r="221" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -10380,7 +10394,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="54">
+    <row r="222" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -10394,7 +10408,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="72">
+    <row r="223" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -10408,7 +10422,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="90">
+    <row r="224" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -10422,7 +10436,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -10433,7 +10447,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="36">
+    <row r="226" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -10444,7 +10458,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="36">
+    <row r="227" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -10455,7 +10469,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -10466,7 +10480,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="36">
+    <row r="229" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -10477,7 +10491,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -10488,7 +10502,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="54">
+    <row r="231" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -10502,7 +10516,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="72">
+    <row r="232" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -10513,7 +10527,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="36">
+    <row r="233" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -10524,7 +10538,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="54">
+    <row r="234" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -10538,7 +10552,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="90">
+    <row r="235" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -10549,7 +10563,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="54">
+    <row r="236" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -10560,7 +10574,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="54">
+    <row r="237" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -10571,7 +10585,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="36">
+    <row r="238" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -10582,7 +10596,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
@@ -10593,7 +10607,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="54">
+    <row r="240" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -10604,7 +10618,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="36">
+    <row r="241" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -10615,7 +10629,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="36">
+    <row r="242" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -10626,7 +10640,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="36">
+    <row r="243" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -10637,7 +10651,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="36">
+    <row r="244" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -10648,7 +10662,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="72">
+    <row r="245" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -10662,7 +10676,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="72">
+    <row r="246" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -10676,7 +10690,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="36">
+    <row r="247" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -10687,7 +10701,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="54">
+    <row r="248" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -10698,7 +10712,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="54">
+    <row r="249" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -10709,7 +10723,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="36">
+    <row r="250" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -10720,7 +10734,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="36">
+    <row r="251" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -10731,7 +10745,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="54">
+    <row r="252" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -10745,7 +10759,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="36">
+    <row r="253" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -10759,7 +10773,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="36">
+    <row r="254" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -10773,7 +10787,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="36">
+    <row r="255" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -10787,7 +10801,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="36">
+    <row r="256" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -10801,7 +10815,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="54">
+    <row r="257" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -10815,7 +10829,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="36">
+    <row r="258" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -10826,7 +10840,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -10837,7 +10851,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="36">
+    <row r="260" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -10848,7 +10862,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="36">
+    <row r="261" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -10862,7 +10876,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="54">
+    <row r="262" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
@@ -10873,7 +10887,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="36">
+    <row r="263" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
@@ -10884,7 +10898,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
@@ -10895,7 +10909,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -10909,7 +10923,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="54">
+    <row r="266" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
@@ -10923,7 +10937,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="36">
+    <row r="267" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
@@ -10934,7 +10948,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="36">
+    <row r="268" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
@@ -10945,7 +10959,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="54">
+    <row r="269" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
@@ -10956,7 +10970,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
@@ -10967,7 +10981,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="54">
+    <row r="271" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -10978,7 +10992,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="36">
+    <row r="272" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -10989,7 +11003,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="54">
+    <row r="273" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -11000,7 +11014,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="36">
+    <row r="274" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -11011,7 +11025,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="54">
+    <row r="275" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -11022,7 +11036,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="54">
+    <row r="276" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -11033,7 +11047,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="36">
+    <row r="277" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
@@ -11044,7 +11058,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
@@ -11055,7 +11069,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="36">
+    <row r="279" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
@@ -11066,7 +11080,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="36">
+    <row r="280" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
@@ -11077,7 +11091,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="36">
+    <row r="281" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
@@ -11088,7 +11102,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="36">
+    <row r="282" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -11099,7 +11113,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="36">
+    <row r="283" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -11110,7 +11124,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="72">
+    <row r="284" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -11121,7 +11135,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="36">
+    <row r="285" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -11132,7 +11146,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="36">
+    <row r="286" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -11143,7 +11157,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="36">
+    <row r="287" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -11154,7 +11168,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="36">
+    <row r="288" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -11165,7 +11179,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="54">
+    <row r="289" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -11176,7 +11190,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="36">
+    <row r="290" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -11187,7 +11201,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -11198,7 +11212,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="36">
+    <row r="292" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -11209,7 +11223,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="54">
+    <row r="293" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>291</v>
       </c>
@@ -11220,7 +11234,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="36">
+    <row r="294" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>292</v>
       </c>
@@ -11231,7 +11245,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
@@ -11242,7 +11256,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="54">
+    <row r="296" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
@@ -11253,7 +11267,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="36">
+    <row r="297" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
@@ -11264,7 +11278,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="72">
+    <row r="298" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
@@ -11275,7 +11289,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="54">
+    <row r="299" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
@@ -11286,7 +11300,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="54">
+    <row r="300" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
@@ -11297,7 +11311,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="54">
+    <row r="301" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>299</v>
       </c>
@@ -11308,7 +11322,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>300</v>
       </c>
@@ -11319,7 +11333,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="36">
+    <row r="303" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>301</v>
       </c>
@@ -11330,7 +11344,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>302</v>
       </c>
@@ -11341,7 +11355,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="54">
+    <row r="305" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>303</v>
       </c>
@@ -11352,7 +11366,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="36">
+    <row r="306" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>304</v>
       </c>
@@ -11363,7 +11377,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="36">
+    <row r="307" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -11374,7 +11388,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="54">
+    <row r="308" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>306</v>
       </c>
@@ -11385,7 +11399,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="36">
+    <row r="309" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>307</v>
       </c>
@@ -11396,7 +11410,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>308</v>
       </c>
@@ -11407,7 +11421,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="36">
+    <row r="311" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -11418,7 +11432,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="36">
+    <row r="312" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>310</v>
       </c>
@@ -11429,7 +11443,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="36">
+    <row r="313" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>311</v>
       </c>
@@ -11440,7 +11454,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>312</v>
       </c>
@@ -11451,7 +11465,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="54">
+    <row r="315" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>313</v>
       </c>
@@ -11462,7 +11476,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="36">
+    <row r="316" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>314</v>
       </c>
@@ -11473,7 +11487,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="54">
+    <row r="317" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>315</v>
       </c>
@@ -11484,7 +11498,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="36">
+    <row r="318" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>316</v>
       </c>
@@ -11495,7 +11509,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="36">
+    <row r="319" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>317</v>
       </c>
@@ -11506,7 +11520,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="54">
+    <row r="320" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>318</v>
       </c>
@@ -11517,7 +11531,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="36">
+    <row r="321" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>319</v>
       </c>
@@ -11528,7 +11542,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="54">
+    <row r="322" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>320</v>
       </c>
@@ -11539,7 +11553,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="54">
+    <row r="323" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>321</v>
       </c>
@@ -11550,7 +11564,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>322</v>
       </c>
@@ -11564,7 +11578,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="36">
+    <row r="325" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>323</v>
       </c>
@@ -11575,7 +11589,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="36">
+    <row r="326" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>324</v>
       </c>
@@ -11586,7 +11600,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="36">
+    <row r="327" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>325</v>
       </c>
@@ -11597,7 +11611,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="54">
+    <row r="328" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>326</v>
       </c>
@@ -11608,7 +11622,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="54">
+    <row r="329" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>327</v>
       </c>
@@ -11622,7 +11636,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="36">
+    <row r="330" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>328</v>
       </c>
@@ -11633,7 +11647,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="54">
+    <row r="331" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>329</v>
       </c>
@@ -11644,7 +11658,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="36">
+    <row r="332" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>330</v>
       </c>
@@ -11655,7 +11669,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="36">
+    <row r="333" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>331</v>
       </c>
@@ -11666,7 +11680,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="54">
+    <row r="334" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>332</v>
       </c>
@@ -11680,7 +11694,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="36">
+    <row r="335" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>333</v>
       </c>
@@ -11691,7 +11705,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="36">
+    <row r="336" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>334</v>
       </c>
@@ -11702,7 +11716,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="36">
+    <row r="337" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>335</v>
       </c>
@@ -11713,7 +11727,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="36">
+    <row r="338" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>336</v>
       </c>
@@ -11724,7 +11738,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="90">
+    <row r="339" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>337</v>
       </c>
@@ -11738,7 +11752,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="36">
+    <row r="340" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>338</v>
       </c>
@@ -11749,7 +11763,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="72">
+    <row r="341" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>339</v>
       </c>
@@ -11760,7 +11774,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="36">
+    <row r="342" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>340</v>
       </c>
@@ -11774,7 +11788,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="36">
+    <row r="343" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>341</v>
       </c>
@@ -11788,7 +11802,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="72">
+    <row r="344" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>342</v>
       </c>
@@ -11799,7 +11813,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="36">
+    <row r="345" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>343</v>
       </c>
@@ -11810,7 +11824,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="54">
+    <row r="346" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>344</v>
       </c>
@@ -11821,7 +11835,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>345</v>
       </c>
@@ -11832,7 +11846,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="36">
+    <row r="348" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>346</v>
       </c>
@@ -11843,7 +11857,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>347</v>
       </c>
@@ -11854,7 +11868,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="36">
+    <row r="350" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>348</v>
       </c>
@@ -11868,7 +11882,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="54">
+    <row r="351" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>349</v>
       </c>
@@ -11879,7 +11893,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="36">
+    <row r="352" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>350</v>
       </c>
@@ -11890,7 +11904,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="54">
+    <row r="353" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>351</v>
       </c>
@@ -11901,7 +11915,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="72">
+    <row r="354" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>352</v>
       </c>
@@ -11912,7 +11926,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="54">
+    <row r="355" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>353</v>
       </c>
@@ -11926,7 +11940,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="54">
+    <row r="356" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>354</v>
       </c>
@@ -11937,7 +11951,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="72">
+    <row r="357" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>355</v>
       </c>
@@ -11948,7 +11962,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="54">
+    <row r="358" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>356</v>
       </c>
@@ -11959,7 +11973,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="36">
+    <row r="359" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>357</v>
       </c>
@@ -11970,7 +11984,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="36">
+    <row r="360" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>358</v>
       </c>
@@ -11981,7 +11995,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>359</v>
       </c>
@@ -11995,7 +12009,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>360</v>
       </c>
@@ -12006,7 +12020,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>361</v>
       </c>
@@ -12017,7 +12031,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>362</v>
       </c>
@@ -12028,7 +12042,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>363</v>
       </c>
@@ -12039,7 +12053,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="36">
+    <row r="366" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>364</v>
       </c>
@@ -12050,7 +12064,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="54">
+    <row r="367" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>365</v>
       </c>
@@ -12061,7 +12075,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="72">
+    <row r="368" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>366</v>
       </c>
@@ -12072,7 +12086,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="54">
+    <row r="369" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>367</v>
       </c>
@@ -12083,7 +12097,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="54">
+    <row r="370" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>368</v>
       </c>
@@ -12094,7 +12108,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>369</v>
       </c>
@@ -12105,7 +12119,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="36">
+    <row r="372" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>370</v>
       </c>
@@ -12116,7 +12130,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="54">
+    <row r="373" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>371</v>
       </c>
@@ -12127,7 +12141,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="54">
+    <row r="374" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>372</v>
       </c>
@@ -12138,7 +12152,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="54">
+    <row r="375" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>373</v>
       </c>
@@ -12152,7 +12166,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="54">
+    <row r="376" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>374</v>
       </c>
@@ -12163,7 +12177,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="36">
+    <row r="377" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>375</v>
       </c>
@@ -12177,7 +12191,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="54">
+    <row r="378" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>376</v>
       </c>
@@ -12188,7 +12202,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="36">
+    <row r="379" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>377</v>
       </c>
@@ -12199,7 +12213,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="54">
+    <row r="380" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>378</v>
       </c>
@@ -12210,7 +12224,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="54">
+    <row r="381" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>379</v>
       </c>
@@ -12221,7 +12235,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="36">
+    <row r="382" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>380</v>
       </c>
@@ -12232,7 +12246,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="36">
+    <row r="383" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>381</v>
       </c>
@@ -12243,7 +12257,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="36">
+    <row r="384" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>382</v>
       </c>
@@ -12254,7 +12268,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="36">
+    <row r="385" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>383</v>
       </c>
@@ -12265,7 +12279,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="36">
+    <row r="386" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>384</v>
       </c>
@@ -12279,7 +12293,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="54">
+    <row r="387" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>385</v>
       </c>
@@ -12290,7 +12304,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>386</v>
       </c>
@@ -12301,7 +12315,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="36">
+    <row r="389" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>387</v>
       </c>
@@ -12315,7 +12329,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="36">
+    <row r="390" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>388</v>
       </c>
@@ -12326,7 +12340,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="54">
+    <row r="391" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>389</v>
       </c>
@@ -12337,7 +12351,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="54">
+    <row r="392" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>390</v>
       </c>
@@ -12348,7 +12362,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="36">
+    <row r="393" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>391</v>
       </c>
@@ -12359,7 +12373,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="72">
+    <row r="394" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>392</v>
       </c>
@@ -12370,7 +12384,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="72">
+    <row r="395" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>393</v>
       </c>
@@ -12381,7 +12395,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="36">
+    <row r="396" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>394</v>
       </c>
@@ -12395,7 +12409,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="72">
+    <row r="397" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>395</v>
       </c>
@@ -12406,7 +12420,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="36">
+    <row r="398" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>396</v>
       </c>
@@ -12417,7 +12431,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="36">
+    <row r="399" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>397</v>
       </c>
@@ -12428,7 +12442,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="54">
+    <row r="400" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>398</v>
       </c>
@@ -12439,7 +12453,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="36">
+    <row r="401" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>399</v>
       </c>
@@ -12450,7 +12464,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="36">
+    <row r="402" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>400</v>
       </c>
@@ -12461,7 +12475,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="72">
+    <row r="403" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>401</v>
       </c>
@@ -12472,7 +12486,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="72">
+    <row r="404" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>402</v>
       </c>
@@ -12483,7 +12497,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="54">
+    <row r="405" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>403</v>
       </c>
@@ -12494,7 +12508,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="36">
+    <row r="406" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>404</v>
       </c>
@@ -12505,7 +12519,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="36">
+    <row r="407" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>405</v>
       </c>
@@ -12516,7 +12530,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="72">
+    <row r="408" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>406</v>
       </c>
@@ -12530,7 +12544,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="36">
+    <row r="409" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>407</v>
       </c>
@@ -12544,7 +12558,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="54">
+    <row r="410" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>408</v>
       </c>
@@ -12555,7 +12569,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="72">
+    <row r="411" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>409</v>
       </c>
@@ -12566,7 +12580,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="54">
+    <row r="412" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>410</v>
       </c>
@@ -12577,7 +12591,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="54">
+    <row r="413" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>411</v>
       </c>
@@ -12588,7 +12602,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="72">
+    <row r="414" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>412</v>
       </c>
@@ -12599,7 +12613,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="36">
+    <row r="415" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>413</v>
       </c>
@@ -12610,7 +12624,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="54">
+    <row r="416" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>414</v>
       </c>
@@ -12621,7 +12635,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>415</v>
       </c>
@@ -12632,7 +12646,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="54">
+    <row r="418" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>416</v>
       </c>
@@ -12646,7 +12660,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>417</v>
       </c>
@@ -12657,7 +12671,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="54">
+    <row r="420" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>418</v>
       </c>
@@ -12668,7 +12682,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="54">
+    <row r="421" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>419</v>
       </c>
@@ -12679,7 +12693,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="36">
+    <row r="422" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>420</v>
       </c>
@@ -12690,7 +12704,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="36">
+    <row r="423" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>421</v>
       </c>
@@ -12701,7 +12715,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="54">
+    <row r="424" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>422</v>
       </c>
@@ -12715,7 +12729,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="36">
+    <row r="425" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>423</v>
       </c>
@@ -12726,7 +12740,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>424</v>
       </c>
@@ -12740,7 +12754,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="36">
+    <row r="427" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>425</v>
       </c>
@@ -12751,7 +12765,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="36">
+    <row r="428" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>426</v>
       </c>
@@ -12765,7 +12779,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>427</v>
       </c>
@@ -12779,7 +12793,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="54">
+    <row r="430" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>428</v>
       </c>
@@ -12793,7 +12807,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="36">
+    <row r="431" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>429</v>
       </c>
@@ -12807,7 +12821,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="90">
+    <row r="432" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>430</v>
       </c>
@@ -12821,7 +12835,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="72">
+    <row r="433" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>431</v>
       </c>
@@ -12835,7 +12849,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="54">
+    <row r="434" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>432</v>
       </c>
@@ -12849,7 +12863,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="54">
+    <row r="435" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>433</v>
       </c>
@@ -12860,7 +12874,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="72">
+    <row r="436" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>434</v>
       </c>
@@ -12874,7 +12888,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="36">
+    <row r="437" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>435</v>
       </c>
@@ -12885,7 +12899,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="54">
+    <row r="438" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>436</v>
       </c>
@@ -12896,7 +12910,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>437</v>
       </c>
@@ -12907,7 +12921,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="54">
+    <row r="440" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>438</v>
       </c>
@@ -12918,7 +12932,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="36">
+    <row r="441" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>439</v>
       </c>
@@ -12929,7 +12943,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="54">
+    <row r="442" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>440</v>
       </c>
@@ -12940,7 +12954,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="72">
+    <row r="443" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>441</v>
       </c>
@@ -12951,7 +12965,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="36">
+    <row r="444" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>442</v>
       </c>
@@ -12962,7 +12976,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="54">
+    <row r="445" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>443</v>
       </c>
@@ -12973,7 +12987,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="108">
+    <row r="446" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>444</v>
       </c>
@@ -12984,7 +12998,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="72">
+    <row r="447" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>445</v>
       </c>
@@ -12995,7 +13009,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="36">
+    <row r="448" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>446</v>
       </c>
@@ -13009,7 +13023,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="54">
+    <row r="449" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>447</v>
       </c>
@@ -13020,7 +13034,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="72">
+    <row r="450" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>448</v>
       </c>
@@ -13031,7 +13045,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="36">
+    <row r="451" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>449</v>
       </c>
@@ -13042,7 +13056,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="36">
+    <row r="452" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>450</v>
       </c>
@@ -13053,7 +13067,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="36">
+    <row r="453" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>451</v>
       </c>
@@ -13064,7 +13078,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="36">
+    <row r="454" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>452</v>
       </c>
@@ -13075,7 +13089,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="36">
+    <row r="455" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>453</v>
       </c>
@@ -13089,7 +13103,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="36">
+    <row r="456" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>454</v>
       </c>
@@ -13100,7 +13114,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="54">
+    <row r="457" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>455</v>
       </c>
@@ -13114,7 +13128,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="54">
+    <row r="458" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>456</v>
       </c>
@@ -13128,7 +13142,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="36">
+    <row r="459" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>457</v>
       </c>
@@ -13139,7 +13153,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="36">
+    <row r="460" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>458</v>
       </c>
@@ -13153,7 +13167,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="54">
+    <row r="461" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>459</v>
       </c>
@@ -13164,7 +13178,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="54">
+    <row r="462" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>460</v>
       </c>
@@ -13175,7 +13189,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="54">
+    <row r="463" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>461</v>
       </c>
@@ -13186,7 +13200,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="36">
+    <row r="464" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>462</v>
       </c>
@@ -13197,7 +13211,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="54">
+    <row r="465" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>463</v>
       </c>
@@ -13208,7 +13222,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="36">
+    <row r="466" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>464</v>
       </c>
@@ -13219,7 +13233,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="36">
+    <row r="467" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>465</v>
       </c>
@@ -13233,7 +13247,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="36">
+    <row r="468" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>466</v>
       </c>
@@ -13247,7 +13261,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="36">
+    <row r="469" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>467</v>
       </c>
@@ -13258,7 +13272,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="36">
+    <row r="470" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>468</v>
       </c>
@@ -13269,7 +13283,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="36">
+    <row r="471" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>469</v>
       </c>
@@ -13280,7 +13294,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="36">
+    <row r="472" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>470</v>
       </c>
@@ -13294,7 +13308,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="54">
+    <row r="473" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>471</v>
       </c>
@@ -13305,7 +13319,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="36">
+    <row r="474" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>472</v>
       </c>
@@ -13316,7 +13330,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="72">
+    <row r="475" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>473</v>
       </c>
@@ -13327,7 +13341,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="36">
+    <row r="476" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>474</v>
       </c>
@@ -13338,7 +13352,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="36">
+    <row r="477" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>475</v>
       </c>
@@ -13349,7 +13363,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="54">
+    <row r="478" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>476</v>
       </c>
@@ -13360,7 +13374,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="54">
+    <row r="479" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>477</v>
       </c>
@@ -13374,7 +13388,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>478</v>
       </c>
@@ -13385,7 +13399,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="36">
+    <row r="481" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>479</v>
       </c>
@@ -13396,7 +13410,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="36">
+    <row r="482" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>480</v>
       </c>
@@ -13407,7 +13421,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="72">
+    <row r="483" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>481</v>
       </c>
@@ -13418,7 +13432,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="72">
+    <row r="484" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>482</v>
       </c>
@@ -13432,7 +13446,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="72">
+    <row r="485" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>483</v>
       </c>
@@ -13446,7 +13460,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="54">
+    <row r="486" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>484</v>
       </c>
@@ -13460,7 +13474,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="36">
+    <row r="487" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>485</v>
       </c>
@@ -13471,7 +13485,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>486</v>
       </c>
@@ -13483,7 +13497,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="36">
+    <row r="489" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>487</v>
       </c>
@@ -13494,7 +13508,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="54">
+    <row r="490" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>488</v>
       </c>
@@ -13505,7 +13519,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="54">
+    <row r="491" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>489</v>
       </c>
@@ -13519,7 +13533,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="54">
+    <row r="492" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>490</v>
       </c>
@@ -13530,7 +13544,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="126">
+    <row r="493" spans="1:4" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>491</v>
       </c>
@@ -13541,7 +13555,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="54">
+    <row r="494" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>492</v>
       </c>
@@ -13552,7 +13566,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="36">
+    <row r="495" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>493</v>
       </c>
@@ -13563,7 +13577,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="90">
+    <row r="496" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>494</v>
       </c>
@@ -13577,7 +13591,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="36">
+    <row r="497" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>495</v>
       </c>
@@ -13588,7 +13602,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>496</v>
       </c>
@@ -13602,7 +13616,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="36">
+    <row r="499" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>497</v>
       </c>
@@ -13613,7 +13627,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="54">
+    <row r="500" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>498</v>
       </c>
@@ -13627,7 +13641,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="54">
+    <row r="501" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>499</v>
       </c>
@@ -13641,7 +13655,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="54">
+    <row r="502" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>500</v>
       </c>
@@ -13652,7 +13666,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="54">
+    <row r="503" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>501</v>
       </c>
@@ -13663,7 +13677,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="36">
+    <row r="504" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>502</v>
       </c>
@@ -13674,7 +13688,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="36">
+    <row r="505" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>503</v>
       </c>
@@ -13685,7 +13699,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="36">
+    <row r="506" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>504</v>
       </c>
@@ -13696,7 +13710,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="54">
+    <row r="507" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>505</v>
       </c>
@@ -13707,7 +13721,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="36">
+    <row r="508" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>506</v>
       </c>
@@ -13718,7 +13732,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="54">
+    <row r="509" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>507</v>
       </c>
@@ -13729,7 +13743,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="36">
+    <row r="510" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>508</v>
       </c>
@@ -13743,7 +13757,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="36">
+    <row r="511" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>509</v>
       </c>
@@ -13754,7 +13768,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="36">
+    <row r="512" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>510</v>
       </c>
@@ -13765,7 +13779,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="36">
+    <row r="513" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>511</v>
       </c>
@@ -13779,7 +13793,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="54">
+    <row r="514" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>512</v>
       </c>
@@ -13790,7 +13804,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="36">
+    <row r="515" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>513</v>
       </c>
@@ -13804,7 +13818,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="108">
+    <row r="516" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>514</v>
       </c>
@@ -13818,7 +13832,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="72">
+    <row r="517" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>515</v>
       </c>
@@ -13829,7 +13843,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="36">
+    <row r="518" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>516</v>
       </c>
@@ -13840,7 +13854,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="36">
+    <row r="519" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>517</v>
       </c>
@@ -13854,7 +13868,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>518</v>
       </c>
@@ -13868,7 +13882,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="36">
+    <row r="521" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>519</v>
       </c>
@@ -13879,7 +13893,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="36">
+    <row r="522" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>520</v>
       </c>
@@ -13890,7 +13904,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="54">
+    <row r="523" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>521</v>
       </c>
@@ -13901,7 +13915,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="36">
+    <row r="524" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>522</v>
       </c>
@@ -13912,7 +13926,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="54">
+    <row r="525" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>523</v>
       </c>
@@ -13923,7 +13937,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>524</v>
       </c>
@@ -13934,7 +13948,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="72">
+    <row r="527" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>525</v>
       </c>
@@ -13945,7 +13959,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>526</v>
       </c>
@@ -13956,7 +13970,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="36">
+    <row r="529" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>527</v>
       </c>
@@ -13970,7 +13984,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="54">
+    <row r="530" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>528</v>
       </c>
@@ -13981,7 +13995,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>529</v>
       </c>
@@ -13992,7 +14006,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>530</v>
       </c>
@@ -14003,7 +14017,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="36">
+    <row r="533" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>531</v>
       </c>
@@ -14014,7 +14028,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>532</v>
       </c>
@@ -14025,7 +14039,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="54">
+    <row r="535" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>533</v>
       </c>
@@ -14036,7 +14050,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="36">
+    <row r="536" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>534</v>
       </c>
@@ -14047,7 +14061,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="72">
+    <row r="537" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>535</v>
       </c>
@@ -14058,7 +14072,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="90">
+    <row r="538" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>536</v>
       </c>
@@ -14072,7 +14086,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="90">
+    <row r="539" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>537</v>
       </c>
@@ -14083,7 +14097,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="36">
+    <row r="540" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>538</v>
       </c>
@@ -14094,7 +14108,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="36">
+    <row r="541" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>539</v>
       </c>
@@ -14105,7 +14119,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="108">
+    <row r="542" spans="1:4" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>540</v>
       </c>
@@ -14116,7 +14130,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="72">
+    <row r="543" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>541</v>
       </c>
@@ -14127,7 +14141,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="54">
+    <row r="544" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>542</v>
       </c>
@@ -14138,7 +14152,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="36">
+    <row r="545" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>543</v>
       </c>
@@ -14149,7 +14163,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="36">
+    <row r="546" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>544</v>
       </c>
@@ -14160,7 +14174,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="54">
+    <row r="547" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>545</v>
       </c>
@@ -14174,7 +14188,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="72">
+    <row r="548" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>546</v>
       </c>
@@ -14188,7 +14202,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="72">
+    <row r="549" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>547</v>
       </c>
@@ -14202,7 +14216,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>548</v>
       </c>
@@ -14216,7 +14230,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>549</v>
       </c>
@@ -14230,7 +14244,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="54">
+    <row r="552" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>550</v>
       </c>
@@ -14244,7 +14258,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="36">
+    <row r="553" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>551</v>
       </c>
@@ -14258,7 +14272,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="36">
+    <row r="554" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>552</v>
       </c>
@@ -14272,7 +14286,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>553</v>
       </c>
@@ -14286,7 +14300,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="36">
+    <row r="556" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>554</v>
       </c>
@@ -14300,7 +14314,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="36">
+    <row r="557" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>555</v>
       </c>
@@ -14314,7 +14328,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="36">
+    <row r="558" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>556</v>
       </c>
@@ -14328,7 +14342,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="54">
+    <row r="559" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>557</v>
       </c>
@@ -14342,7 +14356,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="54">
+    <row r="560" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>558</v>
       </c>
@@ -14356,7 +14370,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>559</v>
       </c>
@@ -14370,7 +14384,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="54">
+    <row r="562" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>560</v>
       </c>
@@ -14384,7 +14398,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="36">
+    <row r="563" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>561</v>
       </c>
@@ -14398,7 +14412,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>562</v>
       </c>
@@ -14412,7 +14426,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="36">
+    <row r="565" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>563</v>
       </c>
@@ -14426,7 +14440,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="36">
+    <row r="566" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>564</v>
       </c>
@@ -14440,7 +14454,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>565</v>
       </c>
@@ -14454,7 +14468,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="54">
+    <row r="568" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>566</v>
       </c>
@@ -14468,7 +14482,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="36">
+    <row r="569" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>567</v>
       </c>
@@ -14482,7 +14496,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="54">
+    <row r="570" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>568</v>
       </c>
@@ -14496,7 +14510,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="54">
+    <row r="571" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>569</v>
       </c>
@@ -14510,7 +14524,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="36">
+    <row r="572" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>570</v>
       </c>
@@ -14524,7 +14538,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="54">
+    <row r="573" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>571</v>
       </c>
@@ -14538,7 +14552,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="36">
+    <row r="574" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>572</v>
       </c>
@@ -14552,7 +14566,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="54">
+    <row r="575" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>573</v>
       </c>
@@ -14566,7 +14580,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="54">
+    <row r="576" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>574</v>
       </c>
@@ -14580,7 +14594,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="72">
+    <row r="577" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>575</v>
       </c>
@@ -14594,7 +14608,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>576</v>
       </c>
@@ -14608,7 +14622,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>577</v>
       </c>
@@ -14620,7 +14634,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>578</v>
       </c>
@@ -14632,7 +14646,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>579</v>
       </c>
@@ -14644,7 +14658,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="90">
+    <row r="582" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>580</v>
       </c>
@@ -14658,7 +14672,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="54">
+    <row r="583" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>581</v>
       </c>
@@ -14672,7 +14686,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="72">
+    <row r="584" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>582</v>
       </c>
@@ -14686,7 +14700,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="36">
+    <row r="585" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>583</v>
       </c>
@@ -14700,7 +14714,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="54">
+    <row r="586" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>584</v>
       </c>
@@ -14714,7 +14728,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="36">
+    <row r="587" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>585</v>
       </c>
@@ -14728,7 +14742,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="36">
+    <row r="588" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>586</v>
       </c>
@@ -14742,7 +14756,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="54">
+    <row r="589" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>587</v>
       </c>
@@ -14756,7 +14770,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="72">
+    <row r="590" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>588</v>
       </c>
@@ -14770,7 +14784,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="54">
+    <row r="591" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>589</v>
       </c>
@@ -14784,7 +14798,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="72">
+    <row r="592" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>590</v>
       </c>
@@ -14798,7 +14812,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="36">
+    <row r="593" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>591</v>
       </c>
@@ -14812,7 +14826,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="90">
+    <row r="594" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>592</v>
       </c>
@@ -14826,7 +14840,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="36">
+    <row r="595" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>593</v>
       </c>
@@ -14840,7 +14854,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>594</v>
       </c>
@@ -14854,7 +14868,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="72">
+    <row r="597" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>595</v>
       </c>
@@ -14868,7 +14882,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="54">
+    <row r="598" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>596</v>
       </c>
@@ -14882,7 +14896,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="36">
+    <row r="599" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>597</v>
       </c>
@@ -14896,7 +14910,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="36">
+    <row r="600" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>598</v>
       </c>
@@ -14910,7 +14924,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="36">
+    <row r="601" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>599</v>
       </c>
@@ -14924,7 +14938,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="36">
+    <row r="602" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>600</v>
       </c>
@@ -14938,7 +14952,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="54">
+    <row r="603" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>601</v>
       </c>
@@ -14949,7 +14963,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="36">
+    <row r="604" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>602</v>
       </c>
@@ -14963,7 +14977,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="36">
+    <row r="605" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>603</v>
       </c>
@@ -14977,7 +14991,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="54">
+    <row r="606" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>604</v>
       </c>
@@ -14991,7 +15005,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>605</v>
       </c>
@@ -15005,7 +15019,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>606</v>
       </c>
@@ -15019,7 +15033,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="54">
+    <row r="609" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>607</v>
       </c>
@@ -15030,7 +15044,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="36">
+    <row r="610" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>608</v>
       </c>
@@ -15044,7 +15058,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="54">
+    <row r="611" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>609</v>
       </c>
@@ -15058,7 +15072,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>610</v>
       </c>
@@ -15072,7 +15086,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="54">
+    <row r="613" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>611</v>
       </c>
@@ -15086,7 +15100,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="36">
+    <row r="614" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>612</v>
       </c>
@@ -15100,7 +15114,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="36">
+    <row r="615" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>613</v>
       </c>
@@ -15114,7 +15128,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="36">
+    <row r="616" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>614</v>
       </c>
@@ -15128,7 +15142,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="54">
+    <row r="617" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>615</v>
       </c>
@@ -15142,7 +15156,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="36">
+    <row r="618" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>616</v>
       </c>
@@ -15156,7 +15170,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="36">
+    <row r="619" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>617</v>
       </c>
@@ -15170,7 +15184,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="54">
+    <row r="620" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>618</v>
       </c>
@@ -15184,7 +15198,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="54">
+    <row r="621" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>619</v>
       </c>
@@ -15198,7 +15212,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="54">
+    <row r="622" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>620</v>
       </c>
@@ -15212,7 +15226,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="54">
+    <row r="623" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>621</v>
       </c>
@@ -15226,7 +15240,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="108">
+    <row r="624" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>622</v>
       </c>
@@ -15240,7 +15254,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="36">
+    <row r="625" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>623</v>
       </c>
@@ -15254,7 +15268,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="36">
+    <row r="626" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>624</v>
       </c>
@@ -15268,7 +15282,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="36">
+    <row r="627" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>625</v>
       </c>
@@ -15282,7 +15296,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="36">
+    <row r="628" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>626</v>
       </c>
@@ -15293,7 +15307,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="36">
+    <row r="629" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>627</v>
       </c>
@@ -15305,7 +15319,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="36">
+    <row r="630" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>628</v>
       </c>
@@ -15319,7 +15333,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="36">
+    <row r="631" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>629</v>
       </c>
@@ -15333,7 +15347,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="72">
+    <row r="632" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>630</v>
       </c>
@@ -15347,7 +15361,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="72">
+    <row r="633" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>631</v>
       </c>
@@ -15361,7 +15375,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="36">
+    <row r="634" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>632</v>
       </c>
@@ -15375,7 +15389,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="36">
+    <row r="635" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>633</v>
       </c>
@@ -15389,7 +15403,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="54">
+    <row r="636" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>634</v>
       </c>
@@ -15403,7 +15417,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="36">
+    <row r="637" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>635</v>
       </c>
@@ -15417,7 +15431,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="54">
+    <row r="638" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>636</v>
       </c>
@@ -15431,7 +15445,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="36">
+    <row r="639" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>637</v>
       </c>
@@ -15445,7 +15459,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="54">
+    <row r="640" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>638</v>
       </c>
@@ -15459,7 +15473,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="36">
+    <row r="641" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>639</v>
       </c>
@@ -15473,7 +15487,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>640</v>
       </c>
@@ -15487,7 +15501,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="54">
+    <row r="643" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>641</v>
       </c>
@@ -15501,7 +15515,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="36">
+    <row r="644" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>642</v>
       </c>
@@ -15515,7 +15529,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="36">
+    <row r="645" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>643</v>
       </c>
@@ -15529,7 +15543,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="54">
+    <row r="646" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>644</v>
       </c>
@@ -15540,7 +15554,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="72">
+    <row r="647" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>645</v>
       </c>
@@ -15551,7 +15565,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="72">
+    <row r="648" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>646</v>
       </c>
@@ -15565,7 +15579,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="54">
+    <row r="649" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>647</v>
       </c>
@@ -15576,7 +15590,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="54">
+    <row r="650" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>648</v>
       </c>
@@ -15587,7 +15601,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="90">
+    <row r="651" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>649</v>
       </c>
@@ -15601,7 +15615,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="36">
+    <row r="652" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>650</v>
       </c>
@@ -15615,7 +15629,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="36">
+    <row r="653" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>651</v>
       </c>
@@ -15629,7 +15643,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="36">
+    <row r="654" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>652</v>
       </c>
@@ -15643,7 +15657,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>653</v>
       </c>
@@ -15657,7 +15671,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>654</v>
       </c>
@@ -15671,7 +15685,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="36">
+    <row r="657" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>655</v>
       </c>
@@ -15685,7 +15699,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>656</v>
       </c>
@@ -15699,7 +15713,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="36">
+    <row r="659" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>657</v>
       </c>
@@ -15713,7 +15727,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="36">
+    <row r="660" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>658</v>
       </c>
@@ -15725,7 +15739,7 @@
       </c>
       <c r="D660" s="10"/>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>659</v>
       </c>
@@ -15736,7 +15750,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="36">
+    <row r="662" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>660</v>
       </c>
@@ -15747,7 +15761,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="36">
+    <row r="663" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>661</v>
       </c>
@@ -15761,7 +15775,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="36">
+    <row r="664" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>662</v>
       </c>
@@ -15772,7 +15786,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="72">
+    <row r="665" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>663</v>
       </c>
@@ -15786,7 +15800,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="54">
+    <row r="666" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>664</v>
       </c>
@@ -15800,7 +15814,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="54">
+    <row r="667" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A667" s="5" t="s">
         <v>665</v>
       </c>
@@ -15814,7 +15828,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="36">
+    <row r="668" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>666</v>
       </c>
@@ -15828,7 +15842,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="72">
+    <row r="669" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>667</v>
       </c>
@@ -15842,7 +15856,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="54">
+    <row r="670" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>668</v>
       </c>
@@ -15856,7 +15870,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="54">
+    <row r="671" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>669</v>
       </c>
@@ -15870,7 +15884,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="36">
+    <row r="672" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>670</v>
       </c>
@@ -15884,7 +15898,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="36">
+    <row r="673" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>671</v>
       </c>
@@ -15895,7 +15909,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="36">
+    <row r="674" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>672</v>
       </c>
@@ -15909,7 +15923,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="36">
+    <row r="675" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>673</v>
       </c>
@@ -15923,7 +15937,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="36">
+    <row r="676" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>674</v>
       </c>
@@ -15937,7 +15951,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="36">
+    <row r="677" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>675</v>
       </c>
@@ -15951,7 +15965,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="36">
+    <row r="678" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>676</v>
       </c>
@@ -15962,7 +15976,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="54">
+    <row r="679" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>677</v>
       </c>
@@ -15973,7 +15987,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
         <v>678</v>
       </c>
@@ -15984,7 +15998,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="36">
+    <row r="681" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>679</v>
       </c>
@@ -15995,7 +16009,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>680</v>
       </c>
@@ -16009,7 +16023,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="36">
+    <row r="683" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>681</v>
       </c>
@@ -16020,7 +16034,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>682</v>
       </c>
@@ -16034,7 +16048,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>683</v>
       </c>
@@ -16048,7 +16062,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="36">
+    <row r="686" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>684</v>
       </c>
@@ -16062,7 +16076,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="36">
+    <row r="687" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>685</v>
       </c>
@@ -16076,7 +16090,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="36">
+    <row r="688" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>686</v>
       </c>
@@ -16090,7 +16104,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="36">
+    <row r="689" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>687</v>
       </c>
@@ -16101,7 +16115,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="90">
+    <row r="690" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>688</v>
       </c>
@@ -16112,7 +16126,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="54">
+    <row r="691" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>689</v>
       </c>
@@ -16126,7 +16140,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="36">
+    <row r="692" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>690</v>
       </c>
@@ -16140,7 +16154,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="36">
+    <row r="693" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>691</v>
       </c>
@@ -16154,7 +16168,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="36">
+    <row r="694" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>692</v>
       </c>
@@ -16168,7 +16182,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="54">
+    <row r="695" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>693</v>
       </c>
@@ -16182,7 +16196,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="36">
+    <row r="696" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>694</v>
       </c>
@@ -16193,7 +16207,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>695</v>
       </c>
@@ -16204,7 +16218,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="36">
+    <row r="698" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>696</v>
       </c>
@@ -16215,7 +16229,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="36">
+    <row r="699" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>697</v>
       </c>
@@ -16229,7 +16243,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="36">
+    <row r="700" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>698</v>
       </c>
@@ -16240,7 +16254,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="36">
+    <row r="701" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>699</v>
       </c>
@@ -16251,7 +16265,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="36">
+    <row r="702" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>700</v>
       </c>
@@ -16262,7 +16276,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="36">
+    <row r="703" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>701</v>
       </c>
@@ -16273,7 +16287,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="54">
+    <row r="704" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>702</v>
       </c>
@@ -16284,7 +16298,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="72">
+    <row r="705" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>703</v>
       </c>
@@ -16295,7 +16309,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="72">
+    <row r="706" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>704</v>
       </c>
@@ -16309,7 +16323,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="54">
+    <row r="707" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>705</v>
       </c>
@@ -16323,7 +16337,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="54">
+    <row r="708" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>706</v>
       </c>
@@ -16334,7 +16348,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="54">
+    <row r="709" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>707</v>
       </c>
@@ -16345,7 +16359,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="54">
+    <row r="710" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>708</v>
       </c>
@@ -16356,7 +16370,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="36">
+    <row r="711" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>709</v>
       </c>
@@ -16367,7 +16381,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="36">
+    <row r="712" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>710</v>
       </c>
@@ -16378,7 +16392,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="36">
+    <row r="713" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>711</v>
       </c>
@@ -16389,7 +16403,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="54">
+    <row r="714" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>712</v>
       </c>
@@ -16400,7 +16414,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>713</v>
       </c>
@@ -16414,7 +16428,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="36">
+    <row r="716" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>714</v>
       </c>
@@ -16428,7 +16442,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>715</v>
       </c>
@@ -16442,7 +16456,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="36">
+    <row r="718" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>716</v>
       </c>
@@ -16453,7 +16467,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="36">
+    <row r="719" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>717</v>
       </c>
@@ -16464,7 +16478,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>718</v>
       </c>
@@ -16475,7 +16489,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>719</v>
       </c>
@@ -16486,7 +16500,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="36">
+    <row r="722" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>720</v>
       </c>
@@ -16497,7 +16511,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>721</v>
       </c>
@@ -16508,7 +16522,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="36">
+    <row r="724" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>722</v>
       </c>
@@ -16519,7 +16533,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="36">
+    <row r="725" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>723</v>
       </c>
@@ -16530,7 +16544,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="36">
+    <row r="726" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>724</v>
       </c>
@@ -16541,7 +16555,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="36">
+    <row r="727" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>725</v>
       </c>
@@ -16552,7 +16566,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>726</v>
       </c>
@@ -16563,7 +16577,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="36">
+    <row r="729" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>727</v>
       </c>
@@ -16574,7 +16588,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>728</v>
       </c>
@@ -16585,7 +16599,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="36">
+    <row r="731" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>729</v>
       </c>
@@ -16596,7 +16610,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="72">
+    <row r="732" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>730</v>
       </c>
@@ -16607,7 +16621,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="72">
+    <row r="733" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>731</v>
       </c>
@@ -16618,7 +16632,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="36">
+    <row r="734" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>732</v>
       </c>
@@ -16629,7 +16643,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="36">
+    <row r="735" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>733</v>
       </c>
@@ -16640,7 +16654,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="36">
+    <row r="736" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>734</v>
       </c>
@@ -16651,7 +16665,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="36">
+    <row r="737" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>735</v>
       </c>
@@ -16662,7 +16676,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="36">
+    <row r="738" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>736</v>
       </c>
@@ -16673,7 +16687,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="36">
+    <row r="739" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>737</v>
       </c>
@@ -16684,7 +16698,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="54">
+    <row r="740" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>738</v>
       </c>
@@ -16695,7 +16709,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="54">
+    <row r="741" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>739</v>
       </c>
@@ -16706,7 +16720,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="54">
+    <row r="742" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>740</v>
       </c>
@@ -16717,7 +16731,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="54">
+    <row r="743" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>741</v>
       </c>
@@ -16731,7 +16745,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="36">
+    <row r="744" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>742</v>
       </c>
@@ -16745,7 +16759,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="72">
+    <row r="745" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>743</v>
       </c>
@@ -16759,7 +16773,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>744</v>
       </c>
@@ -16773,7 +16787,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="36">
+    <row r="747" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>745</v>
       </c>
@@ -16787,7 +16801,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="36">
+    <row r="748" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>746</v>
       </c>
@@ -16801,7 +16815,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="36">
+    <row r="749" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>747</v>
       </c>
@@ -16815,7 +16829,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="54">
+    <row r="750" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>748</v>
       </c>
@@ -16829,7 +16843,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="36">
+    <row r="751" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>749</v>
       </c>
@@ -16843,7 +16857,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="36">
+    <row r="752" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>750</v>
       </c>
@@ -16857,7 +16871,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
         <v>751</v>
       </c>
@@ -16871,7 +16885,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="54">
+    <row r="754" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
         <v>752</v>
       </c>
@@ -16885,7 +16899,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="36">
+    <row r="755" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
         <v>753</v>
       </c>
@@ -16899,7 +16913,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="36">
+    <row r="756" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
         <v>754</v>
       </c>
@@ -16913,7 +16927,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="36">
+    <row r="757" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
         <v>755</v>
       </c>
@@ -16927,7 +16941,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="90">
+    <row r="758" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
         <v>756</v>
       </c>
@@ -16941,7 +16955,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="54">
+    <row r="759" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
         <v>757</v>
       </c>
@@ -16955,7 +16969,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="36">
+    <row r="760" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
         <v>758</v>
       </c>
@@ -16969,7 +16983,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
         <v>759</v>
       </c>
@@ -16983,7 +16997,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="36">
+    <row r="762" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>760</v>
       </c>
@@ -16997,7 +17011,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="36">
+    <row r="763" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>761</v>
       </c>
@@ -17008,7 +17022,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="36">
+    <row r="764" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
         <v>762</v>
       </c>
@@ -17022,7 +17036,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="36">
+    <row r="765" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
         <v>763</v>
       </c>
@@ -17033,7 +17047,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="54">
+    <row r="766" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
         <v>764</v>
       </c>
@@ -17045,7 +17059,7 @@
       </c>
       <c r="D766" s="10"/>
     </row>
-    <row r="767" spans="1:4" ht="36">
+    <row r="767" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
         <v>765</v>
       </c>
@@ -17059,7 +17073,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
         <v>766</v>
       </c>
@@ -17073,7 +17087,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="36">
+    <row r="769" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
         <v>767</v>
       </c>
@@ -17087,7 +17101,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="36">
+    <row r="770" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
         <v>768</v>
       </c>
@@ -17101,7 +17115,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="54">
+    <row r="771" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
         <v>769</v>
       </c>
@@ -17115,7 +17129,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="36">
+    <row r="772" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
         <v>770</v>
       </c>
@@ -17129,7 +17143,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="54">
+    <row r="773" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
         <v>771</v>
       </c>
@@ -17140,7 +17154,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="72">
+    <row r="774" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
         <v>772</v>
       </c>
@@ -17154,7 +17168,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="36">
+    <row r="775" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
         <v>773</v>
       </c>
@@ -17168,7 +17182,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="54">
+    <row r="776" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
         <v>774</v>
       </c>
@@ -17182,7 +17196,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="36">
+    <row r="777" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
         <v>775</v>
       </c>
@@ -17193,7 +17207,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="36">
+    <row r="778" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
         <v>776</v>
       </c>
@@ -17204,7 +17218,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="36">
+    <row r="779" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
         <v>777</v>
       </c>
@@ -17218,7 +17232,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="36">
+    <row r="780" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
         <v>778</v>
       </c>
@@ -17232,7 +17246,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="54">
+    <row r="781" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
         <v>779</v>
       </c>
@@ -17246,7 +17260,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="108">
+    <row r="782" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
         <v>780</v>
       </c>
@@ -17260,7 +17274,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="72">
+    <row r="783" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
         <v>781</v>
       </c>
@@ -17274,7 +17288,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="72">
+    <row r="784" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
         <v>782</v>
       </c>
@@ -17288,7 +17302,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="72">
+    <row r="785" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
         <v>783</v>
       </c>
@@ -17299,7 +17313,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="54">
+    <row r="786" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
         <v>784</v>
       </c>
@@ -17313,7 +17327,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="36">
+    <row r="787" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
         <v>785</v>
       </c>
@@ -17327,7 +17341,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="90">
+    <row r="788" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
         <v>786</v>
       </c>
@@ -17341,7 +17355,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="36">
+    <row r="789" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
         <v>787</v>
       </c>
@@ -17355,7 +17369,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="54">
+    <row r="790" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
         <v>788</v>
       </c>
@@ -17366,7 +17380,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="72">
+    <row r="791" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A791" s="2" t="s">
         <v>789</v>
       </c>
@@ -17377,7 +17391,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="72">
+    <row r="792" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
         <v>790</v>
       </c>
@@ -17388,7 +17402,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="54">
+    <row r="793" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
         <v>791</v>
       </c>
@@ -17402,7 +17416,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="36">
+    <row r="794" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
         <v>792</v>
       </c>
@@ -17416,7 +17430,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="36">
+    <row r="795" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
         <v>793</v>
       </c>
@@ -17430,7 +17444,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="36">
+    <row r="796" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
         <v>794</v>
       </c>
@@ -17444,7 +17458,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="54">
+    <row r="797" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
         <v>795</v>
       </c>
@@ -17458,7 +17472,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="54">
+    <row r="798" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
         <v>796</v>
       </c>
@@ -17472,7 +17486,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="36">
+    <row r="799" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
         <v>797</v>
       </c>
@@ -17486,7 +17500,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="72">
+    <row r="800" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A800" s="2" t="s">
         <v>798</v>
       </c>
@@ -17497,7 +17511,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="54">
+    <row r="801" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
         <v>799</v>
       </c>
@@ -17508,7 +17522,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="54">
+    <row r="802" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
         <v>800</v>
       </c>
@@ -17519,7 +17533,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="36">
+    <row r="803" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A803" s="2" t="s">
         <v>801</v>
       </c>
@@ -17533,7 +17547,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="36">
+    <row r="804" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A804" s="2" t="s">
         <v>802</v>
       </c>
@@ -17547,7 +17561,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="36">
+    <row r="805" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
         <v>803</v>
       </c>
@@ -17561,7 +17575,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="54">
+    <row r="806" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
         <v>804</v>
       </c>
@@ -17575,7 +17589,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="108">
+    <row r="807" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
         <v>65</v>
       </c>
@@ -17589,7 +17603,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="54">
+    <row r="808" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
         <v>805</v>
       </c>
@@ -17603,7 +17617,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="54">
+    <row r="809" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A809" s="2" t="s">
         <v>806</v>
       </c>
@@ -17617,7 +17631,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="54">
+    <row r="810" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
         <v>807</v>
       </c>
@@ -17631,7 +17645,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="54">
+    <row r="811" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A811" s="2" t="s">
         <v>808</v>
       </c>
@@ -17645,7 +17659,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="54">
+    <row r="812" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
         <v>809</v>
       </c>
@@ -17659,7 +17673,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="36">
+    <row r="813" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A813" s="2" t="s">
         <v>810</v>
       </c>
@@ -17673,7 +17687,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="144">
+    <row r="814" spans="1:4" ht="150" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
         <v>811</v>
       </c>
@@ -17687,7 +17701,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="54">
+    <row r="815" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
         <v>812</v>
       </c>
@@ -17701,7 +17715,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="54">
+    <row r="816" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
         <v>813</v>
       </c>
@@ -17715,7 +17729,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="54">
+    <row r="817" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
         <v>814</v>
       </c>
@@ -17729,7 +17743,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="72">
+    <row r="818" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
         <v>815</v>
       </c>
@@ -17743,7 +17757,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="54">
+    <row r="819" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A819" s="2" t="s">
         <v>816</v>
       </c>
@@ -17757,7 +17771,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="54">
+    <row r="820" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A820" s="2" t="s">
         <v>817</v>
       </c>
@@ -17768,7 +17782,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="54">
+    <row r="821" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A821" s="2" t="s">
         <v>818</v>
       </c>
@@ -17779,7 +17793,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="108">
+    <row r="822" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A822" s="2" t="s">
         <v>819</v>
       </c>
@@ -17793,7 +17807,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="54">
+    <row r="823" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A823" s="2" t="s">
         <v>820</v>
       </c>
@@ -17807,7 +17821,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="54">
+    <row r="824" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A824" s="2" t="s">
         <v>821</v>
       </c>
@@ -17821,7 +17835,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="36">
+    <row r="825" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A825" s="2" t="s">
         <v>822</v>
       </c>
@@ -17835,7 +17849,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="54">
+    <row r="826" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
         <v>823</v>
       </c>
@@ -17849,7 +17863,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="72">
+    <row r="827" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A827" s="2" t="s">
         <v>824</v>
       </c>
@@ -17863,7 +17877,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="36">
+    <row r="828" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
         <v>825</v>
       </c>
@@ -17877,7 +17891,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="72">
+    <row r="829" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
         <v>826</v>
       </c>
@@ -17891,7 +17905,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="36">
+    <row r="830" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
         <v>827</v>
       </c>
@@ -17902,7 +17916,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="54">
+    <row r="831" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A831" s="5" t="s">
         <v>828</v>
       </c>
@@ -17916,7 +17930,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="36">
+    <row r="832" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
         <v>829</v>
       </c>
@@ -17930,7 +17944,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
         <v>830</v>
       </c>
@@ -17944,7 +17958,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
         <v>831</v>
       </c>
@@ -17956,7 +17970,7 @@
       </c>
       <c r="D834" s="6"/>
     </row>
-    <row r="835" spans="1:4" ht="36">
+    <row r="835" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
         <v>832</v>
       </c>
@@ -17970,7 +17984,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="36">
+    <row r="836" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
         <v>833</v>
       </c>
@@ -17981,7 +17995,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="36">
+    <row r="837" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A837" s="2" t="s">
         <v>834</v>
       </c>
@@ -17992,7 +18006,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="72">
+    <row r="838" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
         <v>835</v>
       </c>
@@ -18003,7 +18017,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="72">
+    <row r="839" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A839" s="2" t="s">
         <v>836</v>
       </c>
@@ -18014,7 +18028,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
         <v>837</v>
       </c>
@@ -18025,7 +18039,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="54">
+    <row r="841" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
         <v>838</v>
       </c>
@@ -18036,7 +18050,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
         <v>839</v>
       </c>
@@ -18047,7 +18061,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="72">
+    <row r="843" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A843" s="2" t="s">
         <v>840</v>
       </c>
@@ -18058,7 +18072,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="72">
+    <row r="844" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
         <v>841</v>
       </c>
@@ -18069,7 +18083,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="90">
+    <row r="845" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A845" s="2" t="s">
         <v>842</v>
       </c>
@@ -18080,7 +18094,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="36">
+    <row r="846" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
         <v>843</v>
       </c>
@@ -18091,7 +18105,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="54">
+    <row r="847" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
         <v>844</v>
       </c>
@@ -18102,7 +18116,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
         <v>845</v>
       </c>
@@ -18113,7 +18127,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="36">
+    <row r="849" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
         <v>846</v>
       </c>
@@ -18124,7 +18138,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="36">
+    <row r="850" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
         <v>847</v>
       </c>
@@ -18135,7 +18149,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="54">
+    <row r="851" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
         <v>848</v>
       </c>
@@ -18146,7 +18160,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="36">
+    <row r="852" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
         <v>849</v>
       </c>
@@ -18157,7 +18171,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="36">
+    <row r="853" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
         <v>850</v>
       </c>
@@ -18168,7 +18182,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="54">
+    <row r="854" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
         <v>851</v>
       </c>
@@ -18179,7 +18193,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="36">
+    <row r="855" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
         <v>852</v>
       </c>
@@ -18190,7 +18204,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="36">
+    <row r="856" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
         <v>853</v>
       </c>
@@ -18201,7 +18215,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="36">
+    <row r="857" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
         <v>854</v>
       </c>
@@ -18212,7 +18226,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="36">
+    <row r="858" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
         <v>855</v>
       </c>
@@ -18223,7 +18237,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="36">
+    <row r="859" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
         <v>856</v>
       </c>
@@ -18234,7 +18248,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="36">
+    <row r="860" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
         <v>857</v>
       </c>
@@ -18248,7 +18262,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="36">
+    <row r="861" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
         <v>858</v>
       </c>
@@ -18259,7 +18273,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="36">
+    <row r="862" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
         <v>859</v>
       </c>
@@ -18270,7 +18284,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="54">
+    <row r="863" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A863" s="2" t="s">
         <v>860</v>
       </c>
@@ -18281,7 +18295,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="36">
+    <row r="864" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
         <v>861</v>
       </c>
@@ -18292,7 +18306,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" s="2" t="s">
         <v>862</v>
       </c>
@@ -18303,7 +18317,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="36">
+    <row r="866" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
         <v>863</v>
       </c>
@@ -18311,7 +18325,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="54">
+    <row r="867" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
         <v>864</v>
       </c>
@@ -18322,7 +18336,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="54">
+    <row r="868" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
         <v>865</v>
       </c>
@@ -18333,7 +18347,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="36">
+    <row r="869" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A869" s="2" t="s">
         <v>866</v>
       </c>
@@ -18344,7 +18358,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="36">
+    <row r="870" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
         <v>867</v>
       </c>
@@ -18355,7 +18369,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="36">
+    <row r="871" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
         <v>868</v>
       </c>
@@ -18369,7 +18383,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="36">
+    <row r="872" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
         <v>869</v>
       </c>
@@ -18383,7 +18397,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" s="2" t="s">
         <v>870</v>
       </c>
@@ -18397,7 +18411,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
         <v>871</v>
       </c>
@@ -18408,7 +18422,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="36">
+    <row r="875" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A875" s="2" t="s">
         <v>872</v>
       </c>
@@ -18419,7 +18433,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="36">
+    <row r="876" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
         <v>873</v>
       </c>
@@ -18430,7 +18444,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="36">
+    <row r="877" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A877" s="2" t="s">
         <v>874</v>
       </c>
@@ -18441,7 +18455,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="36">
+    <row r="878" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A878" s="2" t="s">
         <v>875</v>
       </c>
@@ -18452,7 +18466,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="36">
+    <row r="879" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A879" s="2" t="s">
         <v>876</v>
       </c>
@@ -18463,7 +18477,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="36">
+    <row r="880" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A880" s="2" t="s">
         <v>877</v>
       </c>
@@ -18474,7 +18488,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="36">
+    <row r="881" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A881" s="2" t="s">
         <v>878</v>
       </c>
@@ -18485,7 +18499,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="36">
+    <row r="882" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A882" s="2" t="s">
         <v>879</v>
       </c>
@@ -18496,7 +18510,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="36">
+    <row r="883" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A883" s="2" t="s">
         <v>880</v>
       </c>
@@ -18510,7 +18524,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" s="2" t="s">
         <v>881</v>
       </c>
@@ -18521,7 +18535,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A885" s="2" t="s">
         <v>882</v>
       </c>
@@ -18532,7 +18546,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="36">
+    <row r="886" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A886" s="2" t="s">
         <v>883</v>
       </c>
@@ -18543,7 +18557,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A887" s="2" t="s">
         <v>884</v>
       </c>
@@ -18554,7 +18568,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="36">
+    <row r="888" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A888" s="2" t="s">
         <v>885</v>
       </c>
@@ -18562,7 +18576,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="36">
+    <row r="889" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A889" s="2" t="s">
         <v>886</v>
       </c>
@@ -18573,7 +18587,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="54">
+    <row r="890" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A890" s="2" t="s">
         <v>887</v>
       </c>
@@ -18584,7 +18598,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="36">
+    <row r="891" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A891" s="2" t="s">
         <v>888</v>
       </c>
@@ -18595,7 +18609,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="36">
+    <row r="892" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A892" s="2" t="s">
         <v>889</v>
       </c>
@@ -18606,7 +18620,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="36">
+    <row r="893" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A893" s="2" t="s">
         <v>890</v>
       </c>
@@ -18617,7 +18631,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="36">
+    <row r="894" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A894" s="2" t="s">
         <v>891</v>
       </c>
@@ -18628,7 +18642,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="36">
+    <row r="895" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A895" s="2" t="s">
         <v>892</v>
       </c>
@@ -18639,7 +18653,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="36">
+    <row r="896" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A896" s="2" t="s">
         <v>893</v>
       </c>
@@ -18650,7 +18664,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="54">
+    <row r="897" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A897" s="2" t="s">
         <v>894</v>
       </c>
@@ -18661,7 +18675,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="36">
+    <row r="898" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A898" s="2" t="s">
         <v>895</v>
       </c>
@@ -18672,7 +18686,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="54">
+    <row r="899" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A899" s="2" t="s">
         <v>896</v>
       </c>
@@ -18683,7 +18697,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="36">
+    <row r="900" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A900" s="2" t="s">
         <v>897</v>
       </c>
@@ -18694,7 +18708,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="901" spans="1:3">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" s="2" t="s">
         <v>898</v>
       </c>
@@ -18705,7 +18719,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="36">
+    <row r="902" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A902" s="2" t="s">
         <v>899</v>
       </c>
@@ -18716,7 +18730,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="36">
+    <row r="903" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A903" s="2" t="s">
         <v>900</v>
       </c>
@@ -18727,7 +18741,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="904" spans="1:3">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" s="2" t="s">
         <v>901</v>
       </c>
@@ -18738,7 +18752,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="905" spans="1:3">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" s="2" t="s">
         <v>902</v>
       </c>
@@ -18749,7 +18763,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="906" spans="1:3">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" s="2" t="s">
         <v>437</v>
       </c>
@@ -18760,7 +18774,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="36">
+    <row r="907" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A907" s="2" t="s">
         <v>903</v>
       </c>
@@ -18771,7 +18785,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="36">
+    <row r="908" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A908" s="2" t="s">
         <v>904</v>
       </c>
@@ -18782,7 +18796,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="36">
+    <row r="909" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A909" s="2" t="s">
         <v>905</v>
       </c>
@@ -18793,7 +18807,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="36">
+    <row r="910" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A910" s="2" t="s">
         <v>906</v>
       </c>
@@ -18804,7 +18818,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="36">
+    <row r="911" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A911" s="2" t="s">
         <v>907</v>
       </c>
@@ -18815,7 +18829,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="912" spans="1:3">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" s="2" t="s">
         <v>908</v>
       </c>
@@ -18826,7 +18840,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="36">
+    <row r="913" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A913" s="2" t="s">
         <v>909</v>
       </c>
@@ -18837,7 +18851,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="914" spans="1:3">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914" s="2" t="s">
         <v>910</v>
       </c>
@@ -18848,7 +18862,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="36">
+    <row r="915" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A915" s="2" t="s">
         <v>911</v>
       </c>
@@ -18856,7 +18870,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="36">
+    <row r="916" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A916" s="2" t="s">
         <v>912</v>
       </c>
@@ -18867,7 +18881,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="917" spans="1:3">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" s="2" t="s">
         <v>913</v>
       </c>
@@ -18875,7 +18889,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="36">
+    <row r="918" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A918" s="2" t="s">
         <v>914</v>
       </c>
@@ -18886,7 +18900,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="36">
+    <row r="919" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A919" s="2" t="s">
         <v>915</v>
       </c>
@@ -18897,7 +18911,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="36">
+    <row r="920" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A920" s="2" t="s">
         <v>916</v>
       </c>
@@ -18908,7 +18922,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="36">
+    <row r="921" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A921" s="2" t="s">
         <v>917</v>
       </c>
@@ -18919,7 +18933,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="36">
+    <row r="922" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A922" s="2" t="s">
         <v>918</v>
       </c>
@@ -18930,7 +18944,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="36">
+    <row r="923" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A923" s="2" t="s">
         <v>919</v>
       </c>
@@ -18941,7 +18955,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="924" spans="1:3">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" s="2" t="s">
         <v>920</v>
       </c>
@@ -18952,7 +18966,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="925" spans="1:3">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" s="2" t="s">
         <v>921</v>
       </c>
@@ -18963,7 +18977,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="36">
+    <row r="926" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A926" s="2" t="s">
         <v>922</v>
       </c>
@@ -18974,7 +18988,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="36">
+    <row r="927" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A927" s="2" t="s">
         <v>923</v>
       </c>
@@ -18985,7 +18999,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="36">
+    <row r="928" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A928" s="2" t="s">
         <v>924</v>
       </c>
@@ -18996,7 +19010,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A929" s="2" t="s">
         <v>925</v>
       </c>
@@ -19007,7 +19021,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="54">
+    <row r="930" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A930" s="2" t="s">
         <v>926</v>
       </c>
@@ -19018,7 +19032,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="36">
+    <row r="931" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A931" s="2" t="s">
         <v>927</v>
       </c>
@@ -19029,7 +19043,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="36">
+    <row r="932" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A932" s="2" t="s">
         <v>928</v>
       </c>
@@ -19040,7 +19054,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="72">
+    <row r="933" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A933" s="2" t="s">
         <v>929</v>
       </c>
@@ -19054,7 +19068,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="36">
+    <row r="934" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A934" s="2" t="s">
         <v>930</v>
       </c>
@@ -19065,7 +19079,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A935" s="2" t="s">
         <v>931</v>
       </c>
@@ -19076,7 +19090,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="36">
+    <row r="936" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A936" s="2" t="s">
         <v>932</v>
       </c>
@@ -19087,7 +19101,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="36">
+    <row r="937" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A937" s="2" t="s">
         <v>933</v>
       </c>
@@ -19098,7 +19112,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="36">
+    <row r="938" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A938" s="2" t="s">
         <v>934</v>
       </c>
@@ -19109,7 +19123,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="54">
+    <row r="939" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A939" s="2" t="s">
         <v>935</v>
       </c>
@@ -19120,7 +19134,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="36">
+    <row r="940" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A940" s="2" t="s">
         <v>936</v>
       </c>
@@ -19131,7 +19145,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="72">
+    <row r="941" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A941" s="2" t="s">
         <v>937</v>
       </c>
@@ -19142,7 +19156,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A942" s="2" t="s">
         <v>938</v>
       </c>
@@ -19153,7 +19167,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="54">
+    <row r="943" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A943" s="2" t="s">
         <v>939</v>
       </c>
@@ -19164,7 +19178,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="944" spans="1:4" ht="54">
+    <row r="944" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A944" s="2" t="s">
         <v>940</v>
       </c>
@@ -19172,7 +19186,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="36">
+    <row r="945" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A945" s="2" t="s">
         <v>941</v>
       </c>
@@ -19183,7 +19197,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="946" spans="1:4">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A946" s="2" t="s">
         <v>942</v>
       </c>
@@ -19194,7 +19208,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="72">
+    <row r="947" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A947" s="2" t="s">
         <v>943</v>
       </c>
@@ -19205,7 +19219,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="54">
+    <row r="948" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A948" s="2" t="s">
         <v>944</v>
       </c>
@@ -19216,7 +19230,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="949" spans="1:4" ht="54">
+    <row r="949" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A949" s="2" t="s">
         <v>945</v>
       </c>
@@ -19227,7 +19241,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A950" s="2" t="s">
         <v>946</v>
       </c>
@@ -19241,7 +19255,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="90">
+    <row r="951" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A951" s="2" t="s">
         <v>947</v>
       </c>
@@ -19255,7 +19269,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="90">
+    <row r="952" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A952" s="2" t="s">
         <v>948</v>
       </c>
@@ -19269,7 +19283,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="36">
+    <row r="953" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A953" s="2" t="s">
         <v>949</v>
       </c>
@@ -19280,7 +19294,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="954" spans="1:4" ht="36">
+    <row r="954" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A954" s="2" t="s">
         <v>950</v>
       </c>
@@ -19291,7 +19305,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="54">
+    <row r="955" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A955" s="2" t="s">
         <v>951</v>
       </c>
@@ -19302,7 +19316,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="54">
+    <row r="956" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A956" s="2" t="s">
         <v>952</v>
       </c>
@@ -19313,7 +19327,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="957" spans="1:4" ht="54">
+    <row r="957" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A957" s="2" t="s">
         <v>516</v>
       </c>
@@ -19324,7 +19338,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="36">
+    <row r="958" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A958" s="2" t="s">
         <v>953</v>
       </c>
@@ -19335,7 +19349,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="36">
+    <row r="959" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A959" s="2" t="s">
         <v>954</v>
       </c>
@@ -19346,7 +19360,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="54">
+    <row r="960" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A960" s="2" t="s">
         <v>955</v>
       </c>
@@ -19357,7 +19371,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="36">
+    <row r="961" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A961" s="2" t="s">
         <v>956</v>
       </c>
@@ -19368,7 +19382,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="36">
+    <row r="962" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A962" s="2" t="s">
         <v>957</v>
       </c>
@@ -19379,7 +19393,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="36">
+    <row r="963" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A963" s="2" t="s">
         <v>958</v>
       </c>
@@ -19390,7 +19404,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="36">
+    <row r="964" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A964" s="2" t="s">
         <v>959</v>
       </c>
@@ -19401,7 +19415,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="965" spans="1:4" ht="54">
+    <row r="965" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A965" s="2" t="s">
         <v>960</v>
       </c>
@@ -19412,7 +19426,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A966" s="2" t="s">
         <v>961</v>
       </c>
@@ -19423,7 +19437,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="36">
+    <row r="967" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A967" s="2" t="s">
         <v>962</v>
       </c>
@@ -19434,7 +19448,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="968" spans="1:4" ht="36">
+    <row r="968" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A968" s="2" t="s">
         <v>963</v>
       </c>
@@ -19445,7 +19459,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="969" spans="1:4">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A969" s="2" t="s">
         <v>964</v>
       </c>
@@ -19456,7 +19470,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A970" s="2" t="s">
         <v>965</v>
       </c>
@@ -19467,7 +19481,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A971" s="2" t="s">
         <v>966</v>
       </c>
@@ -19478,7 +19492,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="36">
+    <row r="972" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A972" s="2" t="s">
         <v>967</v>
       </c>
@@ -19489,7 +19503,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="36">
+    <row r="973" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A973" s="2" t="s">
         <v>968</v>
       </c>
@@ -19500,7 +19514,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="36">
+    <row r="974" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A974" s="2" t="s">
         <v>969</v>
       </c>
@@ -19514,7 +19528,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A975" s="2" t="s">
         <v>970</v>
       </c>
@@ -19525,7 +19539,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="54">
+    <row r="976" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A976" s="2" t="s">
         <v>971</v>
       </c>
@@ -19536,7 +19550,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="977" spans="1:3" ht="36">
+    <row r="977" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A977" s="2" t="s">
         <v>972</v>
       </c>
@@ -19547,7 +19561,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="978" spans="1:3">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" s="2" t="s">
         <v>973</v>
       </c>
@@ -19558,7 +19572,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="979" spans="1:3">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" s="2" t="s">
         <v>974</v>
       </c>
@@ -19569,7 +19583,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="980" spans="1:3">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" s="2" t="s">
         <v>975</v>
       </c>
@@ -19580,7 +19594,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="981" spans="1:3" ht="36">
+    <row r="981" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A981" s="2" t="s">
         <v>976</v>
       </c>
@@ -19591,7 +19605,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="982" spans="1:3" ht="36">
+    <row r="982" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A982" s="2" t="s">
         <v>977</v>
       </c>
@@ -19599,7 +19613,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="983" spans="1:3" ht="36">
+    <row r="983" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A983" s="2" t="s">
         <v>978</v>
       </c>
@@ -19610,7 +19624,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="984" spans="1:3">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" s="2" t="s">
         <v>979</v>
       </c>
@@ -19621,7 +19635,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="985" spans="1:3">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" s="2" t="s">
         <v>980</v>
       </c>
@@ -19632,7 +19646,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="986" spans="1:3">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" s="2" t="s">
         <v>981</v>
       </c>
@@ -19643,7 +19657,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="987" spans="1:3" ht="36">
+    <row r="987" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A987" s="2" t="s">
         <v>982</v>
       </c>
@@ -19654,7 +19668,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="988" spans="1:3" ht="54">
+    <row r="988" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A988" s="2" t="s">
         <v>983</v>
       </c>
@@ -19665,7 +19679,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="989" spans="1:3" ht="36">
+    <row r="989" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A989" s="2" t="s">
         <v>984</v>
       </c>
@@ -19676,7 +19690,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="990" spans="1:3">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" s="2" t="s">
         <v>985</v>
       </c>
@@ -19687,7 +19701,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="991" spans="1:3">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" s="2" t="s">
         <v>986</v>
       </c>
@@ -19698,7 +19712,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="992" spans="1:3" ht="54">
+    <row r="992" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A992" s="2" t="s">
         <v>987</v>
       </c>
@@ -19709,7 +19723,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="993" spans="1:4" ht="54">
+    <row r="993" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A993" s="2" t="s">
         <v>988</v>
       </c>
@@ -19720,7 +19734,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="994" spans="1:4" ht="72">
+    <row r="994" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A994" s="2" t="s">
         <v>989</v>
       </c>
@@ -19734,7 +19748,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="995" spans="1:4" ht="54">
+    <row r="995" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A995" s="2" t="s">
         <v>990</v>
       </c>
@@ -19748,7 +19762,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="996" spans="1:4" ht="36">
+    <row r="996" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A996" s="2" t="s">
         <v>991</v>
       </c>
@@ -19762,7 +19776,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="997" spans="1:4" ht="36">
+    <row r="997" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A997" s="2" t="s">
         <v>992</v>
       </c>
@@ -19776,7 +19790,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A998" s="2" t="s">
         <v>993</v>
       </c>
@@ -19790,7 +19804,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="999" spans="1:4">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A999" s="2" t="s">
         <v>994</v>
       </c>
@@ -19804,7 +19818,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" ht="54">
+    <row r="1000" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1000" s="2" t="s">
         <v>995</v>
       </c>
@@ -19818,7 +19832,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1001" s="2" t="s">
         <v>996</v>
       </c>
@@ -19832,7 +19846,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" ht="36">
+    <row r="1002" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1002" s="2" t="s">
         <v>997</v>
       </c>
@@ -19846,7 +19860,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1003" spans="1:4">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1003" s="2" t="s">
         <v>998</v>
       </c>
@@ -19860,7 +19874,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1004" spans="1:4">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1004" s="2" t="s">
         <v>999</v>
       </c>
@@ -19874,7 +19888,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1005" spans="1:4">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1005" s="2" t="s">
         <v>1000</v>
       </c>
@@ -19888,7 +19902,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" ht="54">
+    <row r="1006" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1006" s="2" t="s">
         <v>1001</v>
       </c>
@@ -19902,7 +19916,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1007" spans="1:4">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1007" s="2" t="s">
         <v>1002</v>
       </c>
@@ -19916,7 +19930,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1008" spans="1:4">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1008" s="2" t="s">
         <v>1003</v>
       </c>
@@ -19930,7 +19944,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1009" spans="1:4">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1009" s="2" t="s">
         <v>1004</v>
       </c>
@@ -19944,7 +19958,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" ht="54">
+    <row r="1010" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1010" s="2" t="s">
         <v>1005</v>
       </c>
@@ -19958,7 +19972,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" ht="36">
+    <row r="1011" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1011" s="2" t="s">
         <v>1006</v>
       </c>
@@ -19972,7 +19986,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1012" spans="1:4">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1012" s="2" t="s">
         <v>1007</v>
       </c>
@@ -19986,7 +20000,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1013" spans="1:4">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1013" s="2" t="s">
         <v>1008</v>
       </c>
@@ -20000,7 +20014,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" ht="36">
+    <row r="1014" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1014" s="2" t="s">
         <v>1009</v>
       </c>
@@ -20014,7 +20028,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1015" spans="1:4">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1015" s="2" t="s">
         <v>1010</v>
       </c>
@@ -20028,7 +20042,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1016" spans="1:4">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1016" s="2" t="s">
         <v>1011</v>
       </c>
@@ -20042,7 +20056,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" ht="36">
+    <row r="1017" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1017" s="2" t="s">
         <v>1012</v>
       </c>
@@ -20056,7 +20070,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" ht="54">
+    <row r="1018" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1018" s="2" t="s">
         <v>1013</v>
       </c>
@@ -20070,7 +20084,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1019" spans="1:4">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1019" s="2" t="s">
         <v>1014</v>
       </c>
@@ -20084,7 +20098,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1020" spans="1:4">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1020" s="2" t="s">
         <v>1015</v>
       </c>
@@ -20095,7 +20109,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" ht="36">
+    <row r="1021" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1021" s="2" t="s">
         <v>1016</v>
       </c>
@@ -20106,7 +20120,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="1022" spans="1:4">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1022" s="2" t="s">
         <v>1017</v>
       </c>
@@ -20117,7 +20131,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" ht="54">
+    <row r="1023" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1023" s="2" t="s">
         <v>1018</v>
       </c>
@@ -20131,7 +20145,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1024" spans="1:4">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1024" s="2" t="s">
         <v>1019</v>
       </c>
@@ -20145,7 +20159,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" ht="54">
+    <row r="1025" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1025" s="2" t="s">
         <v>1020</v>
       </c>
@@ -20156,7 +20170,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="1026" spans="1:4">
+    <row r="1026" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1026" s="2" t="s">
         <v>1021</v>
       </c>
@@ -20167,7 +20181,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1027" spans="1:4">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1027" s="2" t="s">
         <v>1022</v>
       </c>
@@ -20181,7 +20195,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" ht="36">
+    <row r="1028" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1028" s="2" t="s">
         <v>1023</v>
       </c>
@@ -20192,7 +20206,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" ht="36">
+    <row r="1029" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1029" s="2" t="s">
         <v>1024</v>
       </c>
@@ -20203,7 +20217,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" ht="54">
+    <row r="1030" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1030" s="3" t="s">
         <v>1025</v>
       </c>
@@ -20214,7 +20228,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" ht="54">
+    <row r="1031" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1031" s="2" t="s">
         <v>1026</v>
       </c>
@@ -20225,7 +20239,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" ht="36">
+    <row r="1032" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1032" s="2" t="s">
         <v>1027</v>
       </c>
